--- a/bang_ke/van_loc_phat/auto_fill_tenhanghoadichvu_column/mapping.xlsx
+++ b/bang_ke/van_loc_phat/auto_fill_tenhanghoadichvu_column/mapping.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Tools\bang_ke\van_loc_phat\1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Tools\bang_ke\van_loc_phat\auto_fill_tenhanghoadichvu_column\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07C8BDAC-87EF-4C5A-8799-14E09CE73DAE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A96CAED9-E2D7-4495-94A8-554D090CAF12}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="119">
   <si>
     <t>Tên Sheet</t>
   </si>
@@ -373,6 +373,24 @@
   </si>
   <si>
     <t>Bàu Bàng</t>
+  </si>
+  <si>
+    <t>BINH THUAN</t>
+  </si>
+  <si>
+    <t>DA LAT</t>
+  </si>
+  <si>
+    <t>Đà Lạt</t>
+  </si>
+  <si>
+    <t>Lâm Đồng</t>
+  </si>
+  <si>
+    <t>BINH AN</t>
+  </si>
+  <si>
+    <t>Bình An</t>
   </si>
 </sst>
 </file>
@@ -442,7 +460,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -460,9 +478,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -841,7 +856,7 @@
   <dimension ref="A1:C71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -971,23 +986,23 @@
         <v>91</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="7" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B13" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>108</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>31</v>
@@ -995,10 +1010,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>31</v>
@@ -1006,10 +1021,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>31</v>
@@ -1017,10 +1032,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>31</v>
@@ -1028,65 +1043,65 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>68</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>66</v>
+        <v>117</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>67</v>
+        <v>118</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>68</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>75</v>
+        <v>114</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>76</v>
+        <v>115</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>23</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>60</v>
+        <v>87</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>61</v>
+        <v>88</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>23</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>23</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>23</v>
@@ -1094,10 +1109,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>103</v>
+        <v>60</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>104</v>
+        <v>61</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>23</v>
@@ -1105,10 +1120,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>23</v>
@@ -1116,10 +1131,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>99</v>
+        <v>73</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>100</v>
+        <v>74</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>23</v>
@@ -1127,10 +1142,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>32</v>
+        <v>103</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>33</v>
+        <v>104</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>23</v>
@@ -1138,10 +1153,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>23</v>
@@ -1149,10 +1164,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>23</v>
@@ -1160,21 +1175,21 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="6" t="s">
-        <v>46</v>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>69</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>23</v>
@@ -1182,10 +1197,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>47</v>
+        <v>97</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>58</v>
+        <v>98</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>23</v>
@@ -1193,21 +1208,21 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
-        <v>39</v>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="6" t="s">
+        <v>46</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>23</v>
@@ -1215,10 +1230,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>23</v>
@@ -1226,21 +1241,21 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="6" t="s">
-        <v>42</v>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>23</v>
@@ -1248,10 +1263,10 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>23</v>
@@ -1259,21 +1274,21 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
-        <v>45</v>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="6" t="s">
+        <v>42</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>23</v>
@@ -1281,10 +1296,10 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>23</v>
@@ -1292,10 +1307,10 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>23</v>
@@ -1303,10 +1318,10 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>23</v>
@@ -1314,10 +1329,10 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>23</v>
@@ -1325,29 +1340,47 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="B47" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="C47" s="3" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="3"/>
-      <c r="B45" s="3"/>
-      <c r="C45" s="3"/>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="3"/>
-      <c r="B46" s="3"/>
-      <c r="C46" s="3"/>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="3"/>
-      <c r="B47" s="3"/>
-      <c r="C47" s="3"/>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="3"/>
@@ -1470,7 +1503,7 @@
       <c r="C71" s="3"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C44">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C47">
     <sortCondition ref="C2"/>
   </sortState>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/bang_ke/van_loc_phat/auto_fill_tenhanghoadichvu_column/mapping.xlsx
+++ b/bang_ke/van_loc_phat/auto_fill_tenhanghoadichvu_column/mapping.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Tools\bang_ke\van_loc_phat\auto_fill_tenhanghoadichvu_column\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Tools\bang_ke\van_loc_phat\auto_fill_tenhanghoadichvu_column\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A96CAED9-E2D7-4495-94A8-554D090CAF12}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15D81EC4-B5D7-4B46-B69D-7E3619EFE430}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="564" yWindow="408" windowWidth="11532" windowHeight="10848" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="bien_so_xe" sheetId="1" r:id="rId1"/>
@@ -21,20 +21,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="128">
   <si>
     <t>Tên Sheet</t>
   </si>
@@ -391,6 +383,33 @@
   </si>
   <si>
     <t>Bình An</t>
+  </si>
+  <si>
+    <t>A HUNG</t>
+  </si>
+  <si>
+    <t>VSIP 2A</t>
+  </si>
+  <si>
+    <t>Vsip II A</t>
+  </si>
+  <si>
+    <t>MP1</t>
+  </si>
+  <si>
+    <t>MP2</t>
+  </si>
+  <si>
+    <t>Mỹ Phước 1</t>
+  </si>
+  <si>
+    <t>Mỹ Phước 2</t>
+  </si>
+  <si>
+    <t>DN</t>
+  </si>
+  <si>
+    <t>LAM DONG</t>
   </si>
 </sst>
 </file>
@@ -474,7 +493,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -760,20 +779,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="20.140625" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="15.88671875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="20.109375" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -781,7 +800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -789,7 +808,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -797,51 +816,59 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>6</v>
+        <v>119</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B7" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B10" s="1" t="s">
         <v>17</v>
       </c>
     </row>
@@ -853,19 +880,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A37EC10-2333-41E8-996C-745770AEF15E}">
-  <dimension ref="A1:C71"/>
+  <dimension ref="A1:C76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="30.7109375" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="3" width="30.6640625" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>18</v>
       </c>
@@ -876,7 +903,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>34</v>
       </c>
@@ -887,7 +914,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>77</v>
       </c>
@@ -898,613 +925,668 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>85</v>
+        <v>122</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>86</v>
+        <v>124</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>78</v>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>123</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>80</v>
+        <v>125</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>26</v>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>85</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>27</v>
+        <v>86</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>81</v>
+        <v>26</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>82</v>
+        <v>27</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>110</v>
+        <v>62</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>109</v>
+        <v>63</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B14" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C14" s="3" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B15" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C15" s="3" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" s="3" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>96</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
-        <v>105</v>
+      <c r="A17" s="6" t="s">
+        <v>29</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>106</v>
+        <v>30</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B24" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C24" s="3" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B25" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C25" s="3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B26" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C26" s="3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B27" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C22" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
+      <c r="C27" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B28" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
+      <c r="C28" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B29" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C24" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
+      <c r="C29" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B30" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C25" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
+      <c r="C30" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B31" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="C26" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
+      <c r="C31" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B32" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C27" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
+      <c r="C32" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B33" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="C28" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
+      <c r="C33" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B34" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C29" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
+      <c r="C34" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B35" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C30" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
+      <c r="C35" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B36" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="C31" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
+      <c r="C36" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B37" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C32" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="6" t="s">
+      <c r="C37" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B38" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C33" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
+      <c r="C38" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B39" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C34" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
+      <c r="C39" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B40" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C35" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
+      <c r="C40" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B41" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C36" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
+      <c r="C41" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B42" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C37" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
+      <c r="C42" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B43" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C38" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" s="6" t="s">
+      <c r="C43" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B44" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C39" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
+      <c r="C44" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B45" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C40" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
+      <c r="C45" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B46" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C41" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="s">
+      <c r="C46" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B47" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C42" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="3" t="s">
+      <c r="C47" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B48" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C43" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="3" t="s">
+      <c r="C48" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="B49" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C44" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="3" t="s">
+      <c r="C49" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B50" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C45" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="3" t="s">
+      <c r="C50" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B51" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C46" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="3" t="s">
+      <c r="C51" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B52" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="C52" s="3" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="3"/>
-      <c r="B48" s="3"/>
-      <c r="C48" s="3"/>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="3"/>
-      <c r="B49" s="3"/>
-      <c r="C49" s="3"/>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="3"/>
-      <c r="B50" s="3"/>
-      <c r="C50" s="3"/>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="3"/>
-      <c r="B51" s="3"/>
-      <c r="C51" s="3"/>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="3"/>
-      <c r="B52" s="3"/>
-      <c r="C52" s="3"/>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
     </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72" s="3"/>
+      <c r="B72" s="3"/>
+      <c r="C72" s="3"/>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73" s="3"/>
+      <c r="B73" s="3"/>
+      <c r="C73" s="3"/>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74" s="3"/>
+      <c r="B74" s="3"/>
+      <c r="C74" s="3"/>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75" s="3"/>
+      <c r="B75" s="3"/>
+      <c r="C75" s="3"/>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76" s="3"/>
+      <c r="B76" s="3"/>
+      <c r="C76" s="3"/>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C47">
-    <sortCondition ref="C2"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C52">
+    <sortCondition ref="C1:C52"/>
   </sortState>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/bang_ke/van_loc_phat/auto_fill_tenhanghoadichvu_column/mapping.xlsx
+++ b/bang_ke/van_loc_phat/auto_fill_tenhanghoadichvu_column/mapping.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Tools\bang_ke\van_loc_phat\auto_fill_tenhanghoadichvu_column\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15D81EC4-B5D7-4B46-B69D-7E3619EFE430}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F47564EA-893B-486F-8C83-5CAFB916E844}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="564" yWindow="408" windowWidth="11532" windowHeight="10848" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="660" yWindow="240" windowWidth="22020" windowHeight="11820" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="bien_so_xe" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="131">
   <si>
     <t>Tên Sheet</t>
   </si>
@@ -410,6 +410,15 @@
   </si>
   <si>
     <t>LAM DONG</t>
+  </si>
+  <si>
+    <t>BNH TAN</t>
+  </si>
+  <si>
+    <t>THONG NHAT</t>
+  </si>
+  <si>
+    <t>Thống Nhất</t>
   </si>
 </sst>
 </file>
@@ -880,10 +889,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A37EC10-2333-41E8-996C-745770AEF15E}">
-  <dimension ref="A1:C76"/>
+  <dimension ref="A1:C78"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -1092,10 +1101,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>101</v>
+        <v>129</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>102</v>
+        <v>130</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>31</v>
@@ -1103,32 +1112,32 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="5" t="s">
-        <v>105</v>
+      <c r="A21" s="3" t="s">
+        <v>95</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
-        <v>117</v>
+      <c r="A22" s="5" t="s">
+        <v>105</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>31</v>
@@ -1136,18 +1145,18 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>116</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>115</v>
@@ -1158,21 +1167,21 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>87</v>
+        <v>114</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>88</v>
+        <v>115</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>68</v>
+        <v>116</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>68</v>
@@ -1180,21 +1189,21 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>23</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>23</v>
@@ -1202,10 +1211,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>71</v>
+        <v>128</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>23</v>
@@ -1213,10 +1222,10 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>23</v>
@@ -1224,10 +1233,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>103</v>
+        <v>71</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>104</v>
+        <v>72</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>23</v>
@@ -1235,10 +1244,10 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>23</v>
@@ -1246,10 +1255,10 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>23</v>
@@ -1257,10 +1266,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>32</v>
+        <v>83</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>33</v>
+        <v>84</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>23</v>
@@ -1268,10 +1277,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
-        <v>69</v>
+        <v>99</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>23</v>
@@ -1279,10 +1288,10 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>97</v>
+        <v>32</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>98</v>
+        <v>33</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>23</v>
@@ -1290,21 +1299,21 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
-        <v>38</v>
+        <v>69</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="6" t="s">
-        <v>46</v>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="3" t="s">
+        <v>97</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>23</v>
@@ -1312,21 +1321,21 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="3" t="s">
-        <v>48</v>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="6" t="s">
+        <v>46</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>23</v>
@@ -1334,10 +1343,10 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>23</v>
@@ -1345,10 +1354,10 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>23</v>
@@ -1356,21 +1365,21 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="6" t="s">
-        <v>42</v>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>23</v>
@@ -1378,21 +1387,21 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" s="3" t="s">
-        <v>44</v>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="6" t="s">
+        <v>42</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>23</v>
@@ -1400,10 +1409,10 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>23</v>
@@ -1411,10 +1420,10 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>23</v>
@@ -1422,10 +1431,10 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>23</v>
@@ -1433,10 +1442,10 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>23</v>
@@ -1444,10 +1453,10 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
-        <v>21</v>
+        <v>64</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>23</v>
@@ -1455,24 +1464,36 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="B54" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="C52" s="3" t="s">
+      <c r="C54" s="3" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53" s="3"/>
-      <c r="B53" s="3"/>
-      <c r="C53" s="3"/>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A54" s="3"/>
-      <c r="B54" s="3"/>
-      <c r="C54" s="3"/>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="3"/>
@@ -1584,9 +1605,19 @@
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
     </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77" s="3"/>
+      <c r="B77" s="3"/>
+      <c r="C77" s="3"/>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A78" s="3"/>
+      <c r="B78" s="3"/>
+      <c r="C78" s="3"/>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C52">
-    <sortCondition ref="C1:C52"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C54">
+    <sortCondition ref="C2:C54"/>
   </sortState>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
